--- a/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>6467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2998</v>
+        <v>3127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12199</v>
+        <v>12359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02028292506855276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009402226305903462</v>
+        <v>0.009807494988949323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03826063149205996</v>
+        <v>0.0387630367987922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -809,19 +809,19 @@
         <v>12128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6781</v>
+        <v>7049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21750</v>
+        <v>21848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03837086474522405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02145378664864756</v>
+        <v>0.02230199015588533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06881691495946639</v>
+        <v>0.06912559781224184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -830,19 +830,19 @@
         <v>18595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12140</v>
+        <v>11615</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28431</v>
+        <v>29297</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02928722889936443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01912111465322029</v>
+        <v>0.01829472597198802</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0447794734818221</v>
+        <v>0.04614414378645368</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>291418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278805</v>
+        <v>279975</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>300310</v>
+        <v>299611</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9139793215173246</v>
+        <v>0.9139793215173247</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8744205498667516</v>
+        <v>0.8780904919214493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9418668613897357</v>
+        <v>0.9396768685560947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>502</v>
@@ -880,19 +880,19 @@
         <v>293955</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>283855</v>
+        <v>283191</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>300950</v>
+        <v>300405</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9300574122215965</v>
+        <v>0.9300574122215968</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8981021407583111</v>
+        <v>0.8960022955823369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.952189425684262</v>
+        <v>0.9504654909319687</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>803</v>
@@ -901,19 +901,19 @@
         <v>585373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>570748</v>
+        <v>570766</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>597397</v>
+        <v>598533</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.921983108366931</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8989489574771814</v>
+        <v>0.8989764052753481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9409225049059943</v>
+        <v>0.9427111297954086</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>20960</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12631</v>
+        <v>13512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31710</v>
+        <v>32432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06573775341412257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03961350399164954</v>
+        <v>0.0423777860566555</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09945332577993993</v>
+        <v>0.1017173993605884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -951,19 +951,19 @@
         <v>9979</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6127</v>
+        <v>6129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16640</v>
+        <v>16211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03157172303317933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01938435395318677</v>
+        <v>0.01939048299995465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05264944454817361</v>
+        <v>0.05128947687772223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -972,19 +972,19 @@
         <v>30939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22112</v>
+        <v>21091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44588</v>
+        <v>43344</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04872966273370463</v>
+        <v>0.04872966273370462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03482708471533286</v>
+        <v>0.03321952604263097</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07022786593723988</v>
+        <v>0.06826776905572664</v>
       </c>
     </row>
     <row r="8">
@@ -1123,19 +1123,19 @@
         <v>15387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9168</v>
+        <v>8819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26682</v>
+        <v>25403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03023028236578775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01801185354982023</v>
+        <v>0.01732588807975644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05242174785475205</v>
+        <v>0.04990779265319068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1144,19 +1144,19 @@
         <v>10844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6511</v>
+        <v>6463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17817</v>
+        <v>16996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02099644962620659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01260535501024818</v>
+        <v>0.01251356593320929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03449728265608819</v>
+        <v>0.03290768695148322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1165,19 +1165,19 @@
         <v>26231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18164</v>
+        <v>18445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37717</v>
+        <v>38691</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02557960127602032</v>
+        <v>0.02557960127602033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01771267256242977</v>
+        <v>0.01798654213520035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03677971101575046</v>
+        <v>0.03772930547201275</v>
       </c>
     </row>
     <row r="11">
@@ -1194,19 +1194,19 @@
         <v>18551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10018</v>
+        <v>10257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33924</v>
+        <v>32476</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0364473169406136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01968147499611404</v>
+        <v>0.02015222314991958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06664905124597349</v>
+        <v>0.06380507426920703</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1215,19 +1215,19 @@
         <v>10918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6296</v>
+        <v>6404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17729</v>
+        <v>17944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02113874092665076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01218913509488486</v>
+        <v>0.01240008889571846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03432569648287465</v>
+        <v>0.03474213964057576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1236,19 +1236,19 @@
         <v>29469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19435</v>
+        <v>19390</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43864</v>
+        <v>44570</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02873705111846772</v>
+        <v>0.02873705111846773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01895169591288415</v>
+        <v>0.01890844909111156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04277434789783272</v>
+        <v>0.04346263047172542</v>
       </c>
     </row>
     <row r="12">
@@ -1265,19 +1265,19 @@
         <v>458305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>437529</v>
+        <v>438949</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>472014</v>
+        <v>472268</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9004213663775452</v>
+        <v>0.9004213663775453</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.859603074660085</v>
+        <v>0.8623933316419079</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9273556915176717</v>
+        <v>0.9278553487258207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>626</v>
@@ -1286,19 +1286,19 @@
         <v>479866</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>466289</v>
+        <v>466315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>489044</v>
+        <v>489849</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9290948349946038</v>
+        <v>0.9290948349946039</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9028073629296429</v>
+        <v>0.9028574137184137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9468638142366945</v>
+        <v>0.9484221460074498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>953</v>
@@ -1307,19 +1307,19 @@
         <v>938171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>918446</v>
+        <v>914861</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>955552</v>
+        <v>955181</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9148629489831928</v>
+        <v>0.9148629489831929</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8956276934281551</v>
+        <v>0.8921321832415506</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9318119255595859</v>
+        <v>0.9314504252809502</v>
       </c>
     </row>
     <row r="13">
@@ -1336,19 +1336,19 @@
         <v>14207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7866</v>
+        <v>7048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25872</v>
+        <v>26609</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0279121616115608</v>
+        <v>0.02791216161156081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01545344012329629</v>
+        <v>0.01384801507070964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05083005021389502</v>
+        <v>0.05227879401186544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1357,19 +1357,19 @@
         <v>13286</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7488</v>
+        <v>7259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25494</v>
+        <v>24813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02572350937078586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01449736019981219</v>
+        <v>0.01405464624416247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04936100701153603</v>
+        <v>0.04804170982254544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1378,19 +1378,19 @@
         <v>27493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17799</v>
+        <v>17646</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43313</v>
+        <v>43168</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02680983239732047</v>
+        <v>0.02680983239732048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01735656843323492</v>
+        <v>0.01720786285614669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04223650453218299</v>
+        <v>0.0420950510615226</v>
       </c>
     </row>
     <row r="14">
@@ -1410,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8931</v>
+        <v>9711</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.004988872704492542</v>
+        <v>0.004988872704492543</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01754662824538144</v>
+        <v>0.01907975061835085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5395</v>
+        <v>5999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003046465081752883</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01044601215817132</v>
+        <v>0.0116146437705163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1449,19 +1449,19 @@
         <v>4113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>959</v>
+        <v>1327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9922</v>
+        <v>10549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004010566224998612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009348614923368862</v>
+        <v>0.001293790693078893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009675266968400086</v>
+        <v>0.01028652007033444</v>
       </c>
     </row>
     <row r="15">
@@ -1553,19 +1553,19 @@
         <v>8309</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3756</v>
+        <v>4616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14567</v>
+        <v>15377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02762130600859472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01248645838277052</v>
+        <v>0.01534287177877194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04842105802504804</v>
+        <v>0.05111362209434497</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1574,19 +1574,19 @@
         <v>11530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7229</v>
+        <v>6859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17675</v>
+        <v>18278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0340031454652004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02132010370120795</v>
+        <v>0.02022654541711213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05212496421906788</v>
+        <v>0.0539020079907802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1595,19 +1595,19 @@
         <v>19840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13201</v>
+        <v>13274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29767</v>
+        <v>28815</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03100300698078351</v>
+        <v>0.03100300698078352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02062976926554253</v>
+        <v>0.02074312042532292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04651591830314607</v>
+        <v>0.04502946496267072</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4440</v>
+        <v>4213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003650703626178752</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01309516615260559</v>
+        <v>0.01242383162853241</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4376</v>
+        <v>4606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001934487397523493</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.00683877349312741</v>
+        <v>0.007198173929316415</v>
       </c>
     </row>
     <row r="18">
@@ -1687,19 +1687,19 @@
         <v>276535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>267524</v>
+        <v>266346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>283829</v>
+        <v>283078</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9192357973709564</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8892817814043599</v>
+        <v>0.885366276704475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9434842857797314</v>
+        <v>0.9409882783631348</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>461</v>
@@ -1708,19 +1708,19 @@
         <v>311399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>303446</v>
+        <v>302860</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>318881</v>
+        <v>318503</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9183340575344787</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8948817628782797</v>
+        <v>0.8931515640234533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9403998468160809</v>
+        <v>0.9392843527604637</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>769</v>
@@ -1729,19 +1729,19 @@
         <v>587933</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>572708</v>
+        <v>575744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>597774</v>
+        <v>598938</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9187579704838318</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8949648279655168</v>
+        <v>0.899709819797231</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9341353906527136</v>
+        <v>0.9359540743620941</v>
       </c>
     </row>
     <row r="19">
@@ -1758,19 +1758,19 @@
         <v>10632</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6327</v>
+        <v>6392</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16961</v>
+        <v>17312</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03534307619944738</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02103224743983663</v>
+        <v>0.02124904053512306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05638101941579041</v>
+        <v>0.0575480510849864</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1779,19 +1779,19 @@
         <v>12246</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7833</v>
+        <v>7563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18215</v>
+        <v>18829</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03611394760417172</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02309931052935063</v>
+        <v>0.02230238373786259</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05371846886767788</v>
+        <v>0.05552670603251791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1800,19 +1800,19 @@
         <v>22878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16377</v>
+        <v>16627</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31771</v>
+        <v>31843</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03575155663780916</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02559213570913273</v>
+        <v>0.02598214994525837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04964853541037163</v>
+        <v>0.04976123876006942</v>
       </c>
     </row>
     <row r="20">
@@ -1829,19 +1829,19 @@
         <v>5355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2354</v>
+        <v>2374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11372</v>
+        <v>10658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0177998204210017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007825088618088893</v>
+        <v>0.007892920850344638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03780054213787482</v>
+        <v>0.03542890070125834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>2678</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>965</v>
+        <v>787</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5941</v>
+        <v>5705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00789814576997039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002846820526334823</v>
+        <v>0.002322137509418214</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01752059075089641</v>
+        <v>0.01682306205349011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1871,19 +1871,19 @@
         <v>8033</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4368</v>
+        <v>4404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14482</v>
+        <v>14176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01255297850005196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006826433724785149</v>
+        <v>0.006882358482498443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02263052075788603</v>
+        <v>0.02215241610886836</v>
       </c>
     </row>
     <row r="21">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4596</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002452599818448331</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01297326975124056</v>
+        <v>0.01241960383659457</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8050</v>
+        <v>7356</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005165639714011626</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02024462563687653</v>
+        <v>0.01849940276694961</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2017,19 +2017,19 @@
         <v>2923</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7756</v>
+        <v>8161</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003887372390553015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001165014413807913</v>
+        <v>0.001154911557426543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.010314691073565</v>
+        <v>0.01085423219095248</v>
       </c>
     </row>
     <row r="23">
@@ -2059,19 +2059,19 @@
         <v>2525</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619</v>
+        <v>872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6297</v>
+        <v>6981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006349236306340392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001556614429056751</v>
+        <v>0.00219259360875643</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01583652542416475</v>
+        <v>0.01755529523475467</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2080,19 +2080,19 @@
         <v>2525</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>652</v>
+        <v>890</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6472</v>
+        <v>6875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003357750146264268</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0008668503694909175</v>
+        <v>0.001183102585235241</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008607789168173875</v>
+        <v>0.009143687351239545</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>349347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>342468</v>
+        <v>342321</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>352734</v>
+        <v>352792</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9861253294393367</v>
+        <v>0.9861253294393368</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9667081231278611</v>
+        <v>0.9662931286693115</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9956868402662152</v>
+        <v>0.9958504652857426</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>545</v>
@@ -2130,19 +2130,19 @@
         <v>386316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>378466</v>
+        <v>379757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>391060</v>
+        <v>391013</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9715311591871464</v>
+        <v>0.9715311591871463</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9517906678315861</v>
+        <v>0.9550355322675812</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9834622644760552</v>
+        <v>0.9833433818602606</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>815</v>
@@ -2151,19 +2151,19 @@
         <v>735662</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>726927</v>
+        <v>726530</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>741929</v>
+        <v>742221</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9784073024303305</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9667893349262577</v>
+        <v>0.9662609363903655</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.986742102253333</v>
+        <v>0.9871295403834152</v>
       </c>
     </row>
     <row r="25">
@@ -2180,19 +2180,19 @@
         <v>4046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1101</v>
+        <v>1045</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10999</v>
+        <v>11344</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0114220707422149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003109108148825599</v>
+        <v>0.002948656044079294</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03104846876031041</v>
+        <v>0.03202232567595331</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2201,19 +2201,19 @@
         <v>5887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2640</v>
+        <v>2574</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12048</v>
+        <v>12694</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01480547301636795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006639407378666922</v>
+        <v>0.006472927003106507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03029890716639321</v>
+        <v>0.03192333432274026</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2222,19 +2222,19 @@
         <v>9934</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5238</v>
+        <v>5181</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17456</v>
+        <v>18240</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01321135986814702</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006966179841179438</v>
+        <v>0.006890145303774707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0232153781697755</v>
+        <v>0.0242584817599357</v>
       </c>
     </row>
     <row r="26">
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2963</v>
+        <v>2671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002148491776133721</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007452226386242608</v>
+        <v>0.006717820672081252</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2980</v>
+        <v>2998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001136215164705168</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.003962813217622027</v>
+        <v>0.003987879138919625</v>
       </c>
     </row>
     <row r="27">
@@ -2483,19 +2483,19 @@
         <v>201445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>193553</v>
+        <v>194361</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>204378</v>
+        <v>204428</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9794807958132079</v>
+        <v>0.979480795813208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9411071940113006</v>
+        <v>0.9450369440089433</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9937401783328716</v>
+        <v>0.9939872941432768</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>482</v>
@@ -2504,19 +2504,19 @@
         <v>222834</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>218737</v>
+        <v>219436</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>224897</v>
+        <v>224879</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9824146723391216</v>
+        <v>0.9824146723391215</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9643530942195098</v>
+        <v>0.9674318585488012</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9915102683254335</v>
+        <v>0.9914274911066526</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>757</v>
@@ -2525,19 +2525,19 @@
         <v>424279</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>417328</v>
+        <v>417478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>428027</v>
+        <v>428156</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9810195010656723</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9649480181282671</v>
+        <v>0.9652926861458159</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9896863535005621</v>
+        <v>0.9899824184865904</v>
       </c>
     </row>
     <row r="31">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5017</v>
+        <v>3428</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003789128049504812</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02439635564962399</v>
+        <v>0.01666906098795576</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2575,19 +2575,19 @@
         <v>3189</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1229</v>
+        <v>1287</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6444</v>
+        <v>6572</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01406068390619896</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.005417334531036016</v>
+        <v>0.005673121935034987</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02840950313440797</v>
+        <v>0.02897232478718219</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2596,19 +2596,19 @@
         <v>3969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1904</v>
+        <v>1942</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8301</v>
+        <v>7708</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.009176163532449559</v>
+        <v>0.009176163532449558</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004403570303258528</v>
+        <v>0.004490369514200602</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01919377147460734</v>
+        <v>0.01782324005787241</v>
       </c>
     </row>
     <row r="32">
@@ -2625,19 +2625,19 @@
         <v>3441</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>986</v>
+        <v>516</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11981</v>
+        <v>10722</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0167300761372872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004794947986247978</v>
+        <v>0.002507823764013876</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05825688633811476</v>
+        <v>0.05213175389216583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3119</v>
+        <v>2691</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.003524643754679381</v>
+        <v>0.00352464375467938</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01375233057639047</v>
+        <v>0.01186394117092283</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2667,19 +2667,19 @@
         <v>4240</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1183</v>
+        <v>1216</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11516</v>
+        <v>11488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009804335401878165</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002735675045174279</v>
+        <v>0.002810994628508669</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02662620032550875</v>
+        <v>0.02656193913181324</v>
       </c>
     </row>
     <row r="33">
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4870</v>
+        <v>4691</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.00414143399841141</v>
+        <v>0.004141433998411411</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01887928397731999</v>
+        <v>0.01818769011060293</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2792,19 +2792,19 @@
         <v>1923</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>692</v>
+        <v>474</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5609</v>
+        <v>4736</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007873835113608464</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002835470999790735</v>
+        <v>0.001940349016160736</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02296646751730665</v>
+        <v>0.01939096543930267</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2813,19 +2813,19 @@
         <v>2991</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1136</v>
+        <v>1099</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7624</v>
+        <v>7306</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.005956643198387336</v>
+        <v>0.005956643198387338</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002262230446653815</v>
+        <v>0.002189362688927148</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01518223409984906</v>
+        <v>0.01454895697738512</v>
       </c>
     </row>
     <row r="35">
@@ -2842,19 +2842,19 @@
         <v>2882</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>826</v>
+        <v>1168</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6649</v>
+        <v>7558</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01117375715740947</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003200302501744081</v>
+        <v>0.004526446003040361</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02577653481725973</v>
+        <v>0.02929970718660502</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2863,19 +2863,19 @@
         <v>2913</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7699</v>
+        <v>7740</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01192682138432041</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003754657673719048</v>
+        <v>0.003769642456473864</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03152373565875398</v>
+        <v>0.03169115989285504</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2884,19 +2884,19 @@
         <v>5795</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2988</v>
+        <v>2736</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11428</v>
+        <v>11473</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01154000104992565</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005949205571789518</v>
+        <v>0.005448812933390708</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02275690665501569</v>
+        <v>0.02284792564756413</v>
       </c>
     </row>
     <row r="36">
@@ -2913,19 +2913,19 @@
         <v>218359</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>208139</v>
+        <v>206662</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>227502</v>
+        <v>227370</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8465349651146165</v>
+        <v>0.8465349651146166</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8069136238004365</v>
+        <v>0.8011875115920133</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8819781640160185</v>
+        <v>0.8814673982786216</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>344</v>
@@ -2934,19 +2934,19 @@
         <v>213608</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>204588</v>
+        <v>205736</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>220549</v>
+        <v>220720</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.8746410325501505</v>
+        <v>0.8746410325501504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8377059121490699</v>
+        <v>0.8424084978117782</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9030586202937524</v>
+        <v>0.9037611870699577</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>628</v>
@@ -2955,19 +2955,19 @@
         <v>431967</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>418681</v>
+        <v>418882</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>443552</v>
+        <v>443608</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8602040190585764</v>
+        <v>0.8602040190585766</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8337464953214236</v>
+        <v>0.8341470414474976</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8832746589795918</v>
+        <v>0.8833858863717369</v>
       </c>
     </row>
     <row r="37">
@@ -2984,19 +2984,19 @@
         <v>17516</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11461</v>
+        <v>12325</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24473</v>
+        <v>25603</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06790638544039575</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04443220193001152</v>
+        <v>0.04778278949581555</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09487619988980472</v>
+        <v>0.0992566996389561</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>45</v>
@@ -3005,19 +3005,19 @@
         <v>17924</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13254</v>
+        <v>13114</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24108</v>
+        <v>23967</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.07338994765955566</v>
+        <v>0.07338994765955564</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05427076712874041</v>
+        <v>0.05369804481273429</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09871418933254068</v>
+        <v>0.09813659965103597</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>77</v>
@@ -3026,19 +3026,19 @@
         <v>35440</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27798</v>
+        <v>27480</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>44372</v>
+        <v>44655</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.0705732511607844</v>
+        <v>0.07057325116078442</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05535504379733876</v>
+        <v>0.05472306499394723</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08836098465515609</v>
+        <v>0.08892349011119825</v>
       </c>
     </row>
     <row r="38">
@@ -3055,19 +3055,19 @@
         <v>18119</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11520</v>
+        <v>11575</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26847</v>
+        <v>27688</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07024345828916682</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04465908289832479</v>
+        <v>0.04487540451734204</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1040793183495417</v>
+        <v>0.1073425426102499</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>13</v>
@@ -3076,19 +3076,19 @@
         <v>7856</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4110</v>
+        <v>4435</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13711</v>
+        <v>13262</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.03216836329236508</v>
+        <v>0.03216836329236507</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01682679564288683</v>
+        <v>0.01815831052249178</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0561395618771713</v>
+        <v>0.05430370870739214</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>37</v>
@@ -3097,19 +3097,19 @@
         <v>25975</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>17713</v>
+        <v>18351</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35858</v>
+        <v>35779</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.05172608553232608</v>
+        <v>0.05172608553232609</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03527362033534207</v>
+        <v>0.0365434940071877</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07140644306467374</v>
+        <v>0.0712483745126202</v>
       </c>
     </row>
     <row r="39">
@@ -3201,19 +3201,19 @@
         <v>3859</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9555</v>
+        <v>9972</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005471995627090845</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001409950303048697</v>
+        <v>0.001396613303151531</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01354730058218095</v>
+        <v>0.01413823563688466</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -3222,19 +3222,19 @@
         <v>9391</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4975</v>
+        <v>5189</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15815</v>
+        <v>15985</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.01236728360935834</v>
+        <v>0.01236728360935835</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006551944995076344</v>
+        <v>0.006833427605423677</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02082715015631676</v>
+        <v>0.02105167779662057</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -3243,19 +3243,19 @@
         <v>13250</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>7462</v>
+        <v>8187</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20876</v>
+        <v>21841</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009046828828744606</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005095098528969556</v>
+        <v>0.005590055439311114</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01425344748783468</v>
+        <v>0.01491227086253435</v>
       </c>
     </row>
     <row r="41">
@@ -3272,19 +3272,19 @@
         <v>4344</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9958</v>
+        <v>11826</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.006159523775867741</v>
+        <v>0.00615952377586774</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001576027865467027</v>
+        <v>0.001590905243999827</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0141190762973543</v>
+        <v>0.01676801397181743</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -3293,19 +3293,19 @@
         <v>9188</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5027</v>
+        <v>4478</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16685</v>
+        <v>16177</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01210061268585901</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006619970118237381</v>
+        <v>0.00589783803051163</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0219736160430863</v>
+        <v>0.02130434509422825</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -3314,19 +3314,19 @@
         <v>13533</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7846</v>
+        <v>7966</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>22231</v>
+        <v>22415</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009239656461265679</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005357269217182091</v>
+        <v>0.005438815895381842</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01517856033466159</v>
+        <v>0.01530452784414147</v>
       </c>
     </row>
     <row r="42">
@@ -3343,19 +3343,19 @@
         <v>688791</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>678653</v>
+        <v>678610</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>695238</v>
+        <v>695414</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.9765991019108968</v>
+        <v>0.9765991019108966</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.96222449670426</v>
+        <v>0.9621639347194711</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9857391106937216</v>
+        <v>0.9859883252989355</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>903</v>
@@ -3364,19 +3364,19 @@
         <v>725363</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>712544</v>
+        <v>711749</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>734891</v>
+        <v>734451</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.9552702691346311</v>
+        <v>0.9552702691346313</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9383879994951612</v>
+        <v>0.9373413056255575</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9678173611943806</v>
+        <v>0.9672380780526408</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1471</v>
@@ -3385,19 +3385,19 @@
         <v>1414156</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1399784</v>
+        <v>1399156</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1426831</v>
+        <v>1426741</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9655412578067494</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9557286086589688</v>
+        <v>0.9552995902945814</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9741954246579105</v>
+        <v>0.9741342299298713</v>
       </c>
     </row>
     <row r="43">
@@ -3414,19 +3414,19 @@
         <v>5424</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2061</v>
+        <v>1967</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>12786</v>
+        <v>11738</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.007691062239934226</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.002922024014316747</v>
+        <v>0.002788506469895839</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01812909833728452</v>
+        <v>0.01664241028169287</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>11</v>
@@ -3435,19 +3435,19 @@
         <v>8205</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>4317</v>
+        <v>4147</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14459</v>
+        <v>13724</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01080504441290964</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.00568538098808407</v>
+        <v>0.005461826874823212</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01904185275630107</v>
+        <v>0.01807323035393119</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>16</v>
@@ -3456,19 +3456,19 @@
         <v>13629</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>7846</v>
+        <v>8048</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>21646</v>
+        <v>22175</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.00930549326731674</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005356781479449174</v>
+        <v>0.005494918204192852</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01477949577633807</v>
+        <v>0.01514013043517619</v>
       </c>
     </row>
     <row r="44">
@@ -3485,19 +3485,19 @@
         <v>2876</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7695</v>
+        <v>7685</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.004078316446210501</v>
+        <v>0.0040783164462105</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001221692384957371</v>
+        <v>0.001221278812539875</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01091040815316958</v>
+        <v>0.01089561139784528</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>7</v>
@@ -3506,19 +3506,19 @@
         <v>7181</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2728</v>
+        <v>2701</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17272</v>
+        <v>14946</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.009456790157241889</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003592400157635962</v>
+        <v>0.003557159823907097</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0227469666865364</v>
+        <v>0.01968322088984534</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3527,19 +3527,19 @@
         <v>10057</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5232</v>
+        <v>4973</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>20250</v>
+        <v>19250</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.006866763635923688</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.00357194292049553</v>
+        <v>0.003395098872528557</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01382626748623229</v>
+        <v>0.01314355884319545</v>
       </c>
     </row>
     <row r="45">
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4923</v>
+        <v>4805</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.001638488326525404</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.005921408624778224</v>
+        <v>0.005779630353568193</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>5012</v>
+        <v>4654</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0008359666618364238</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.003075978246120009</v>
+        <v>0.002855961740618361</v>
       </c>
     </row>
     <row r="47">
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8853</v>
+        <v>8899</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002219537959664126</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01109290972571871</v>
+        <v>0.01115082301464796</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -3715,19 +3715,19 @@
         <v>2573</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6530</v>
+        <v>6699</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.003094631161775992</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0007441265366754038</v>
+        <v>0.0007428098560095805</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.007854496690776376</v>
+        <v>0.00805865165804525</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -3736,19 +3736,19 @@
         <v>4344</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1236</v>
+        <v>1334</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>11251</v>
+        <v>11056</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.002666015808253095</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0007584416342077489</v>
+        <v>0.000818906905017499</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.006904731420814618</v>
+        <v>0.006785199834320423</v>
       </c>
     </row>
     <row r="48">
@@ -3765,19 +3765,19 @@
         <v>723547</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>702468</v>
+        <v>703150</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>740671</v>
+        <v>740951</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.9066189846114445</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.880205713112086</v>
+        <v>0.881060876330219</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.9280756680406326</v>
+        <v>0.9284256533401368</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>992</v>
@@ -3786,19 +3786,19 @@
         <v>779139</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>765242</v>
+        <v>766429</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>790730</v>
+        <v>790320</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.9372188608453028</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.920502211873274</v>
+        <v>0.9219299671336183</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.9511612994438891</v>
+        <v>0.9506677004060794</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1690</v>
@@ -3807,19 +3807,19 @@
         <v>1502686</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1479889</v>
+        <v>1478183</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1523298</v>
+        <v>1524209</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.9222312266846441</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.9082399365464228</v>
+        <v>0.9071931437369413</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.9348813220053062</v>
+        <v>0.9354404498073553</v>
       </c>
     </row>
     <row r="49">
@@ -3836,19 +3836,19 @@
         <v>48054</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>34838</v>
+        <v>36038</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>64126</v>
+        <v>65802</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06021210498858144</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04365313559430199</v>
+        <v>0.04515670452472861</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08035121984968883</v>
+        <v>0.08245091549411002</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>45</v>
@@ -3857,19 +3857,19 @@
         <v>32642</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>23982</v>
+        <v>24214</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>44258</v>
+        <v>43040</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0392644346428908</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02884792664642498</v>
+        <v>0.02912653219705467</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05323768400553239</v>
+        <v>0.05177288819086497</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>87</v>
@@ -3878,19 +3878,19 @@
         <v>80695</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>64271</v>
+        <v>64180</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>101398</v>
+        <v>100592</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04952447678358101</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03944473577671628</v>
+        <v>0.03938880290375677</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06223041978660928</v>
+        <v>0.0617352492749727</v>
       </c>
     </row>
     <row r="50">
@@ -3907,19 +3907,19 @@
         <v>24700</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>15556</v>
+        <v>15029</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>41960</v>
+        <v>41425</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03094937244030987</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01949155268894869</v>
+        <v>0.01883169255307486</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05257627246446611</v>
+        <v>0.05190614507745536</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>19</v>
@@ -3928,19 +3928,19 @@
         <v>15615</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9615</v>
+        <v>9621</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>25384</v>
+        <v>24830</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01878358502350512</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0115662323730439</v>
+        <v>0.0115727070313746</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03053427908546554</v>
+        <v>0.02986832819662714</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>40</v>
@@ -3949,19 +3949,19 @@
         <v>40315</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>27892</v>
+        <v>28552</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>57020</v>
+        <v>57151</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02474231406168544</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01711771515046316</v>
+        <v>0.01752271774232752</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03499426350326807</v>
+        <v>0.03507462565356909</v>
       </c>
     </row>
     <row r="51">
@@ -4053,19 +4053,19 @@
         <v>29493</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>20232</v>
+        <v>19879</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>41527</v>
+        <v>42008</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.008548850469094899</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.005864587865973327</v>
+        <v>0.005762229693048118</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01203718375399192</v>
+        <v>0.01217668747856731</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>54</v>
@@ -4074,19 +4074,19 @@
         <v>37105</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>28579</v>
+        <v>28860</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>49822</v>
+        <v>48092</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0102188758268902</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.007870954282801438</v>
+        <v>0.007948161633660973</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01372141274761639</v>
+        <v>0.01324497883315342</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>85</v>
@@ -4095,19 +4095,19 @@
         <v>66597</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>54225</v>
+        <v>52972</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>82795</v>
+        <v>82543</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.009405216846837532</v>
+        <v>0.009405216846837533</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.007657927472425706</v>
+        <v>0.007480971482906766</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01169274798398034</v>
+        <v>0.01165709145598747</v>
       </c>
     </row>
     <row r="53">
@@ -4124,19 +4124,19 @@
         <v>34016</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>22752</v>
+        <v>22446</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>50623</v>
+        <v>48317</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.009860051295184621</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.006595002363573363</v>
+        <v>0.006506146685158999</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01467366057650719</v>
+        <v>0.01400526283840601</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>61</v>
@@ -4145,19 +4145,19 @@
         <v>41482</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>30607</v>
+        <v>31666</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>56320</v>
+        <v>55263</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01142441446885513</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.008429454842344202</v>
+        <v>0.008721022957337203</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01551106624401688</v>
+        <v>0.01521976677638625</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>92</v>
@@ -4166,19 +4166,19 @@
         <v>75498</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>60023</v>
+        <v>59141</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>98094</v>
+        <v>94285</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01066223553643396</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.008476739493397946</v>
+        <v>0.008352167879494341</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01385338581546664</v>
+        <v>0.01331548555303418</v>
       </c>
     </row>
     <row r="54">
@@ -4195,19 +4195,19 @@
         <v>3207747</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3172336</v>
+        <v>3172328</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3237941</v>
+        <v>3237415</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.9298072676607525</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.9195430164058613</v>
+        <v>0.9195405734189852</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.9385595057488703</v>
+        <v>0.9384069748551785</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>4855</v>
@@ -4216,19 +4216,19 @@
         <v>3412483</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>3384998</v>
+        <v>3385242</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>3435942</v>
+        <v>3435896</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.9398231577877979</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.9322536400520396</v>
+        <v>0.9323207156484494</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.9462840865286251</v>
+        <v>0.9462714068569125</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>7886</v>
@@ -4237,19 +4237,19 @@
         <v>6620229</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>6579742</v>
+        <v>6579193</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>6659764</v>
+        <v>6659592</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.9349432804212349</v>
+        <v>0.934943280421235</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.9292254784024195</v>
+        <v>0.9291479929563473</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.9405266160086229</v>
+        <v>0.9405023978779476</v>
       </c>
     </row>
     <row r="55">
@@ -4266,19 +4266,19 @@
         <v>121619</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>101344</v>
+        <v>101609</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>143597</v>
+        <v>146344</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.03525294627823381</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02937589202152387</v>
+        <v>0.02945283378091291</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04162355230379204</v>
+        <v>0.04241983300580258</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>170</v>
@@ -4287,19 +4287,19 @@
         <v>103357</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>88168</v>
+        <v>87988</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>123514</v>
+        <v>122812</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.0284652292469071</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.02428207072512324</v>
+        <v>0.0242325650294366</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0340166519410132</v>
+        <v>0.03382322870484069</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>304</v>
@@ -4308,19 +4308,19 @@
         <v>224976</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>197877</v>
+        <v>198665</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>254474</v>
+        <v>257555</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.03177229694549972</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.02794529301414667</v>
+        <v>0.02805650904818903</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03593821137012567</v>
+        <v>0.03637322959244856</v>
       </c>
     </row>
     <row r="56">
@@ -4337,19 +4337,19 @@
         <v>57030</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>42638</v>
+        <v>42628</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>75328</v>
+        <v>74773</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.01653088429673427</v>
+        <v>0.01653088429673428</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0123592310246084</v>
+        <v>0.01235636434697254</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02183488930739424</v>
+        <v>0.02167402858626056</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>50</v>
@@ -4358,19 +4358,19 @@
         <v>36558</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>26404</v>
+        <v>26262</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>49030</v>
+        <v>49224</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01006832266954966</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.00727178188733311</v>
+        <v>0.007232653501740871</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01350318425085897</v>
+        <v>0.01355651847527184</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>110</v>
@@ -4379,19 +4379,19 @@
         <v>93588</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>75349</v>
+        <v>75914</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>115510</v>
+        <v>114597</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0132169702499938</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0106412196816778</v>
+        <v>0.01072092749641024</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01631293456738404</v>
+        <v>0.01618392636918101</v>
       </c>
     </row>
     <row r="57">
